--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFF53B4-E058-4FB9-BD59-4AA166DCB79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E0C50-DE7B-4FCA-87EC-13C03FF475D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
   <si>
     <t>k = 20</t>
   </si>
@@ -102,10 +102,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,6 +503,9 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -609,28 +620,52 @@
         <v>0.98040000000000005</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="G5">
-        <v>0.95830000000000004</v>
+        <v>0.95920000000000005</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
+      <c r="K5">
+        <v>0.97640000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="N5">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="P5">
-        <v>0.95830000000000004</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="S5" t="s">
         <v>6</v>
       </c>
+      <c r="T5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="U5">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.91739999999999999</v>
+      </c>
       <c r="X5">
-        <v>1</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.92779999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -653,25 +688,49 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9899</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
+      <c r="K6">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="M6">
+        <v>0.96240000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.88660000000000005</v>
+      </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
       </c>
+      <c r="T6">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="U6">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="V6">
+        <v>0.9304</v>
+      </c>
+      <c r="W6">
+        <v>0.87039999999999995</v>
+      </c>
       <c r="X6">
-        <v>1</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.98040000000000005</v>
+        <v>0.62339999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -691,28 +750,52 @@
         <v>0.97089999999999999</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.96719999999999995</v>
       </c>
       <c r="G7">
-        <v>0.76539999999999997</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
       </c>
+      <c r="K7">
+        <v>0.86119999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0.99009999999999998</v>
+      </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="P7">
-        <v>0.92469999999999997</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="S7" t="s">
         <v>8</v>
       </c>
+      <c r="T7">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="U7">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0.89290000000000003</v>
+      </c>
       <c r="X7">
-        <v>0.99680000000000002</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.96</v>
+        <v>0.96150000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -732,28 +815,52 @@
         <v>0.92930000000000001</v>
       </c>
       <c r="F8">
-        <v>0.99880000000000002</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="G8">
-        <v>0.83720000000000006</v>
+        <v>0.98</v>
       </c>
       <c r="J8" t="s">
         <v>9</v>
       </c>
+      <c r="K8" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.9032</v>
+      </c>
       <c r="O8">
-        <v>0.998</v>
+        <v>0.99439999999999995</v>
       </c>
       <c r="P8">
-        <v>0.95830000000000004</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
+      <c r="T8">
+        <v>0.62</v>
+      </c>
+      <c r="U8">
+        <v>3.85E-2</v>
+      </c>
+      <c r="V8">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.43080000000000002</v>
+      </c>
       <c r="X8">
-        <v>0.99080000000000001</v>
+        <v>0.9032</v>
       </c>
       <c r="Y8">
-        <v>0.95920000000000005</v>
+        <v>0.72940000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -773,28 +880,52 @@
         <v>0.74070000000000003</v>
       </c>
       <c r="F9">
-        <v>0.97240000000000004</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="G9">
-        <v>0.66669999999999996</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
+      <c r="K9">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L9">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.90280000000000005</v>
+      </c>
+      <c r="N9">
+        <v>0.36070000000000002</v>
+      </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.88839999999999997</v>
       </c>
       <c r="P9">
-        <v>0.95830000000000004</v>
+        <v>0.3871</v>
       </c>
       <c r="S9" t="s">
         <v>10</v>
       </c>
+      <c r="T9">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="U9">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="V9">
+        <v>0.95479999999999998</v>
+      </c>
+      <c r="W9">
+        <v>0.90720000000000001</v>
+      </c>
       <c r="X9">
-        <v>0.95679999999999998</v>
+        <v>0.88080000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.88170000000000004</v>
+        <v>0.69879999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -814,22 +945,52 @@
         <v>0.98040000000000005</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="G10">
-        <v>0.93620000000000003</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
       </c>
+      <c r="K10">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="L10">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
       <c r="S10" t="s">
         <v>11</v>
       </c>
+      <c r="T10">
+        <v>0.69040000000000001</v>
+      </c>
+      <c r="U10">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0.86209999999999998</v>
+      </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="Y10">
-        <v>0.97089999999999999</v>
+        <v>0.89290000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -849,28 +1010,52 @@
         <v>0.96079999999999999</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99880000000000002</v>
       </c>
       <c r="G11">
-        <v>0.87639999999999996</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
+      <c r="K11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M11">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="N11">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="S11" t="s">
         <v>12</v>
       </c>
+      <c r="T11">
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="U11">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.84750000000000003</v>
+      </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -898,6 +1083,18 @@
       <c r="J12" t="s">
         <v>13</v>
       </c>
+      <c r="K12">
+        <v>0.75239999999999996</v>
+      </c>
+      <c r="L12">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="O12">
         <v>1</v>
       </c>
@@ -907,11 +1104,23 @@
       <c r="S12" t="s">
         <v>13</v>
       </c>
+      <c r="T12">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0.94340000000000002</v>
+      </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -934,25 +1143,49 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.96909999999999996</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
+      <c r="K13">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="L13">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="N13">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="O13">
-        <v>1</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="S13" t="s">
         <v>14</v>
       </c>
+      <c r="T13">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="U13">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="V13">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="W13">
+        <v>0.92589999999999995</v>
+      </c>
       <c r="X13">
-        <v>0.99960000000000004</v>
+        <v>0.998</v>
       </c>
       <c r="Y13">
-        <v>0.93459999999999999</v>
+        <v>0.95240000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -977,33 +1210,65 @@
       </c>
       <c r="F14">
         <f>ROUND(AVERAGE(F5:F13), 4)</f>
-        <v>0.99680000000000002</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.88880000000000003</v>
+        <v>0.9304</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
       </c>
+      <c r="K14">
+        <f>ROUND(AVERAGE(K5:K13), 4)</f>
+        <v>0.85819999999999996</v>
+      </c>
+      <c r="L14">
+        <f>ROUND(AVERAGE(L5:L13), 4)</f>
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="M14">
+        <f>ROUND(AVERAGE(M5:M13), 4)</f>
+        <v>0.98140000000000005</v>
+      </c>
+      <c r="N14">
+        <f>ROUND(AVERAGE(N5:N13), 4)</f>
+        <v>0.89580000000000004</v>
+      </c>
       <c r="O14">
         <f>ROUND(AVERAGE(O5:O13), 4)</f>
-        <v>0.99980000000000002</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="P14">
         <f>ROUND(AVERAGE(P5:P13), 4)</f>
-        <v>0.97499999999999998</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="S14" t="s">
         <v>16</v>
       </c>
+      <c r="T14">
+        <f>ROUND(AVERAGE(T5:T13), 4)</f>
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="U14">
+        <f>ROUND(AVERAGE(U5:U13), 4)</f>
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="V14">
+        <f>ROUND(AVERAGE(V5:V13), 4)</f>
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="W14">
+        <f>ROUND(AVERAGE(W5:W13), 4)</f>
+        <v>0.84419999999999995</v>
+      </c>
       <c r="X14">
         <f>ROUND(AVERAGE(X5:X13), 4)</f>
-        <v>0.99380000000000002</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="Y14">
         <f>ROUND(AVERAGE(Y5:Y13), 4)</f>
-        <v>0.96519999999999995</v>
+        <v>0.85970000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
@@ -1124,22 +1389,52 @@
         <v>0.93879999999999997</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="G22">
-        <v>0.76539999999999997</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="J22" t="s">
         <v>6</v>
       </c>
+      <c r="K22">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="L22">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.93879999999999997</v>
+      </c>
       <c r="O22">
-        <v>0.99680000000000002</v>
+        <v>0.9536</v>
       </c>
       <c r="P22">
-        <v>0.79520000000000002</v>
+        <v>0.6835</v>
       </c>
       <c r="S22" t="s">
         <v>6</v>
+      </c>
+      <c r="T22">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="V22">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="W22">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="X22">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="Y22">
+        <v>0.747</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -1159,28 +1454,52 @@
         <v>0.70889999999999997</v>
       </c>
       <c r="F23">
-        <v>0.99280000000000002</v>
+        <v>0.99639999999999995</v>
       </c>
       <c r="G23">
-        <v>0.88890000000000002</v>
+        <v>0.87639999999999996</v>
       </c>
       <c r="J23" t="s">
         <v>7</v>
       </c>
+      <c r="K23">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="L23">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="M23">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N23">
+        <v>0.14810000000000001</v>
+      </c>
       <c r="O23">
-        <v>0.99680000000000002</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="S23" t="s">
         <v>7</v>
       </c>
+      <c r="T23">
+        <v>0.88280000000000003</v>
+      </c>
+      <c r="U23">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="V23">
+        <v>0.98040000000000005</v>
+      </c>
+      <c r="W23">
+        <v>7.6899999999999996E-2</v>
+      </c>
       <c r="X23">
-        <v>1</v>
+        <v>0.97640000000000005</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -1203,19 +1522,43 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.95830000000000004</v>
+        <v>0.99009999999999998</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
       </c>
+      <c r="K24">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.98319999999999996</v>
+      </c>
+      <c r="N24">
+        <v>0.98</v>
+      </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0.61109999999999998</v>
+        <v>1</v>
       </c>
       <c r="S24" t="s">
         <v>8</v>
+      </c>
+      <c r="T24">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="U24">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="V24">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="W24">
+        <v>0.9032</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -1241,28 +1584,52 @@
         <v>0.77780000000000005</v>
       </c>
       <c r="F25">
-        <v>0.99199999999999999</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="G25">
-        <v>0.76539999999999997</v>
+        <v>0.95050000000000001</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
       </c>
+      <c r="K25">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="L25">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="M25">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.72729999999999995</v>
+      </c>
       <c r="O25">
-        <v>0.99019999999999997</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="P25">
-        <v>0.33329999999999999</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="S25" t="s">
         <v>9</v>
       </c>
+      <c r="T25">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="U25">
+        <v>0.51349999999999996</v>
+      </c>
+      <c r="V25">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="W25">
+        <v>0.39389999999999997</v>
+      </c>
       <c r="X25">
-        <v>0.98119999999999996</v>
+        <v>0.95960000000000001</v>
       </c>
       <c r="Y25">
-        <v>0.24560000000000001</v>
+        <v>0.61329999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -1282,28 +1649,52 @@
         <v>0.94950000000000001</v>
       </c>
       <c r="F26">
-        <v>0.97160000000000002</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="G26">
-        <v>0.70130000000000003</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
       </c>
+      <c r="K26">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="L26">
+        <v>0.96</v>
+      </c>
+      <c r="M26">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="N26">
+        <v>0.96</v>
+      </c>
       <c r="O26">
-        <v>0.97399999999999998</v>
+        <v>0.9556</v>
       </c>
       <c r="P26">
-        <v>0.78049999999999997</v>
+        <v>0.1111</v>
       </c>
       <c r="S26" t="s">
         <v>10</v>
       </c>
+      <c r="T26">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="V26">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="W26">
+        <v>0.92159999999999997</v>
+      </c>
       <c r="X26">
-        <v>0.98640000000000005</v>
+        <v>0.87560000000000004</v>
       </c>
       <c r="Y26">
-        <v>0.71789999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -1322,23 +1713,53 @@
       <c r="E27">
         <v>0.97089999999999999</v>
       </c>
+      <c r="F27">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="G27">
+        <v>0.98</v>
+      </c>
       <c r="J27" t="s">
         <v>11</v>
       </c>
+      <c r="K27">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="L27">
+        <v>0.78649999999999998</v>
+      </c>
+      <c r="M27">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="N27">
+        <v>0.95150000000000001</v>
+      </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27">
-        <v>0.95830000000000004</v>
+        <v>1</v>
       </c>
       <c r="S27" t="s">
         <v>11</v>
       </c>
+      <c r="T27">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="U27">
+        <v>0.39389999999999997</v>
+      </c>
+      <c r="V27">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="W27">
+        <v>0.81720000000000004</v>
+      </c>
       <c r="X27">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="Y27">
-        <v>0.97960000000000003</v>
+        <v>0.64939999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -1361,25 +1782,49 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
       </c>
+      <c r="K28">
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="N28">
+        <v>0.97089999999999999</v>
+      </c>
       <c r="O28">
-        <v>1</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="S28" t="s">
         <v>12</v>
       </c>
+      <c r="T28">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="U28">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0.94340000000000002</v>
+      </c>
       <c r="X28">
-        <v>1</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -1399,28 +1844,52 @@
         <v>0.42420000000000002</v>
       </c>
       <c r="F29">
-        <v>0.92679999999999996</v>
+        <v>0.96360000000000001</v>
       </c>
       <c r="G29">
-        <v>0.33329999999999999</v>
+        <v>0.77649999999999997</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
+      <c r="K29">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="L29">
+        <v>0.1754</v>
+      </c>
+      <c r="M29">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="N29">
+        <v>0.1754</v>
+      </c>
       <c r="O29">
-        <v>0.99160000000000004</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.8478</v>
       </c>
       <c r="S29" t="s">
         <v>13</v>
       </c>
+      <c r="T29">
+        <v>0.89</v>
+      </c>
+      <c r="U29">
+        <v>0.1429</v>
+      </c>
+      <c r="V29">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="W29">
+        <v>0.1404</v>
+      </c>
       <c r="X29">
-        <v>1</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.67469999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
@@ -1440,28 +1909,52 @@
         <v>0.97089999999999999</v>
       </c>
       <c r="F30">
-        <v>0.95279999999999998</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="G30">
-        <v>0.18179999999999999</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
+      <c r="K30">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="L30">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="M30">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="N30">
+        <v>0.98040000000000005</v>
+      </c>
       <c r="O30">
-        <v>0.99399999999999999</v>
+        <v>0.9476</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="S30" t="s">
         <v>14</v>
       </c>
+      <c r="T30">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="U30">
+        <v>0.98</v>
+      </c>
+      <c r="V30">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="W30">
+        <v>0.99009999999999998</v>
+      </c>
       <c r="X30">
-        <v>0.98480000000000001</v>
+        <v>0.95760000000000001</v>
       </c>
       <c r="Y30">
-        <v>0.70130000000000003</v>
+        <v>0.61109999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
@@ -1477,7 +1970,7 @@
         <v>0.85360000000000003</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(D22:D30), 4)</f>
         <v>0.96740000000000004</v>
       </c>
       <c r="E31">
@@ -1486,33 +1979,65 @@
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>0.97950000000000004</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0.69930000000000003</v>
+        <v>0.85970000000000002</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
       </c>
+      <c r="K31">
+        <f>ROUND(AVERAGE(K22:K30), 4)</f>
+        <v>0.9425</v>
+      </c>
+      <c r="L31">
+        <f>ROUND(AVERAGE(L22:L30), 4)</f>
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="M31">
+        <f>ROUND(AVERAGE(M22:M30), 4)</f>
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="N31">
+        <f>ROUND(AVERAGE(N22:N30), 4)</f>
+        <v>0.75919999999999999</v>
+      </c>
       <c r="O31">
         <f>ROUND(AVERAGE(O22:O30), 4)</f>
-        <v>0.99370000000000003</v>
+        <v>0.9677</v>
       </c>
       <c r="P31">
         <f>ROUND(AVERAGE(P22:P30), 4)</f>
-        <v>0.49759999999999999</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="S31" t="s">
         <v>16</v>
       </c>
+      <c r="T31">
+        <f>ROUND(AVERAGE(T22:T30), 4)</f>
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="U31">
+        <f>ROUND(AVERAGE(U22:U30), 4)</f>
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="V31">
+        <f>ROUND(AVERAGE(V22:V30), 4)</f>
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="W31">
+        <f>ROUND(AVERAGE(W22:W30), 4)</f>
+        <v>0.68169999999999997</v>
+      </c>
       <c r="X31">
         <f>ROUND(AVERAGE(X22:X30), 4)</f>
-        <v>0.99409999999999998</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="Y31">
         <f>ROUND(AVERAGE(Y22:Y30), 4)</f>
-        <v>0.5806</v>
+        <v>0.62219999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E0C50-DE7B-4FCA-87EC-13C03FF475D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE4539-6E75-4ED2-9003-2887278CBC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="22">
   <si>
     <t>k = 20</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>k = 5</t>
+  </si>
+  <si>
+    <t>ranking + threshold penalty + no PCA</t>
+  </si>
+  <si>
+    <t>because only layer 34 selected</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="Y13" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,35 +496,40 @@
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -528,26 +539,35 @@
       <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>20</v>
       </c>
       <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>3</v>
       </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="S3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
         <v>2</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -566,10 +586,10 @@
       <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="I4" t="s">
         <v>5</v>
       </c>
       <c r="M4" t="s">
@@ -584,16 +604,16 @@
       <c r="P4" t="s">
         <v>5</v>
       </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>4</v>
+      </c>
       <c r="T4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" t="s">
         <v>5</v>
       </c>
       <c r="X4" t="s">
@@ -602,8 +622,26 @@
       <c r="Y4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -625,50 +663,68 @@
       <c r="G5">
         <v>0.95920000000000005</v>
       </c>
-      <c r="J5" t="s">
+      <c r="H5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.97640000000000005</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.92779999999999996</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.99960000000000004</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.98040000000000005</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.99919999999999998</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.96909999999999996</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="W5" t="s">
         <v>6</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>0.92930000000000001</v>
       </c>
-      <c r="V5">
+      <c r="Z5">
         <v>0.99839999999999995</v>
       </c>
-      <c r="W5">
+      <c r="AA5">
         <v>0.91739999999999999</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>0.99480000000000002</v>
       </c>
-      <c r="Y5">
+      <c r="AC5">
         <v>0.92779999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD5">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="AE5">
+        <v>0.91739999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -690,50 +746,68 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H6">
+        <v>0.99</v>
+      </c>
+      <c r="I6">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="L6" t="s">
         <v>7</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.99480000000000002</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.91669999999999996</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.96240000000000003</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.88660000000000005</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>0.85060000000000002</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6">
+        <v>0.98</v>
+      </c>
+      <c r="T6">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="W6" t="s">
         <v>7</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>0.98919999999999997</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>0.95920000000000005</v>
       </c>
-      <c r="V6">
+      <c r="Z6">
         <v>0.9304</v>
       </c>
-      <c r="W6">
+      <c r="AA6">
         <v>0.87039999999999995</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>0.96160000000000001</v>
       </c>
-      <c r="Y6">
+      <c r="AC6">
         <v>0.62339999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.84030000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -755,50 +829,68 @@
       <c r="G7">
         <v>0.91490000000000005</v>
       </c>
-      <c r="J7" t="s">
+      <c r="H7">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.86119999999999997</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0.99009999999999998</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.97040000000000004</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.91669999999999996</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7">
+        <v>0.8276</v>
+      </c>
+      <c r="T7">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="W7" t="s">
         <v>8</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>0.92879999999999996</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>0.63009999999999999</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>0.89290000000000003</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>0.98599999999999999</v>
       </c>
-      <c r="Y7">
+      <c r="AC7">
         <v>0.96150000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD7">
+        <v>0.9234</v>
+      </c>
+      <c r="AE7">
+        <v>0.8649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -820,50 +912,68 @@
       <c r="G8">
         <v>0.98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="H8">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="L8" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>0.65</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.99080000000000001</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0.9032</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.99439999999999995</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.93330000000000002</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="W8" t="s">
         <v>9</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>0.62</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>3.85E-2</v>
       </c>
-      <c r="V8">
+      <c r="Z8">
         <v>0.93159999999999998</v>
       </c>
-      <c r="W8">
+      <c r="AA8">
         <v>0.43080000000000002</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>0.9032</v>
       </c>
-      <c r="Y8">
+      <c r="AC8">
         <v>0.72940000000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD8">
+        <v>0.9214</v>
+      </c>
+      <c r="AE8">
+        <v>0.84209999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -885,50 +995,71 @@
       <c r="G9">
         <v>0.61109999999999998</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H9">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="L9" t="s">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.90280000000000005</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>0.36070000000000002</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.88839999999999997</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.3871</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" t="s">
         <v>10</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>0.97119999999999995</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>0.92469999999999997</v>
       </c>
-      <c r="V9">
+      <c r="Z9">
         <v>0.95479999999999998</v>
       </c>
-      <c r="W9">
+      <c r="AA9">
         <v>0.90720000000000001</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.88080000000000003</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <v>0.69879999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD9">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="AE9">
+        <v>0.8246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -950,50 +1081,68 @@
       <c r="G10">
         <v>0.99009999999999998</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10">
+        <v>0.96419999999999995</v>
+      </c>
+      <c r="I10">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.87239999999999995</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.46150000000000002</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="S10" t="s">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="T10">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="W10" t="s">
         <v>11</v>
       </c>
-      <c r="T10">
+      <c r="X10">
         <v>0.69040000000000001</v>
       </c>
-      <c r="U10">
+      <c r="Y10">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
         <v>0.86209999999999998</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>0.93920000000000003</v>
       </c>
-      <c r="Y10">
+      <c r="AC10">
         <v>0.89290000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD10">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="AE10">
+        <v>0.82640000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1015,50 +1164,68 @@
       <c r="G11">
         <v>0.94740000000000002</v>
       </c>
-      <c r="J11" t="s">
+      <c r="H11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="L11" t="s">
         <v>12</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.84799999999999998</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.99360000000000004</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.98040000000000005</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.99919999999999998</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.97089999999999999</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="W11" t="s">
         <v>12</v>
       </c>
-      <c r="T11">
+      <c r="X11">
         <v>0.81020000000000003</v>
       </c>
-      <c r="U11">
+      <c r="Y11">
         <v>0.52780000000000005</v>
       </c>
-      <c r="V11">
+      <c r="Z11">
         <v>0.98199999999999998</v>
       </c>
-      <c r="W11">
+      <c r="AA11">
         <v>0.84750000000000003</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>0.99919999999999998</v>
       </c>
-      <c r="Y11">
+      <c r="AC11">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD11">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>0.94230000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1080,50 +1247,68 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="H12">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.75239999999999996</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>0.98040000000000005</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="T12">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="W12" t="s">
         <v>13</v>
       </c>
-      <c r="T12">
+      <c r="X12">
         <v>0.69840000000000002</v>
       </c>
-      <c r="U12">
+      <c r="Y12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>0.94340000000000002</v>
       </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
         <v>0.97089999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD12">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="AE12">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1145,50 +1330,68 @@
       <c r="G13">
         <v>0.97089999999999999</v>
       </c>
-      <c r="J13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.97040000000000004</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.92630000000000001</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.98360000000000003</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.98040000000000005</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.99839999999999995</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.93459999999999999</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="T13">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="W13" t="s">
         <v>14</v>
       </c>
-      <c r="T13">
+      <c r="X13">
         <v>0.92520000000000002</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
         <v>0.71599999999999997</v>
       </c>
-      <c r="V13">
+      <c r="Z13">
         <v>0.98240000000000005</v>
       </c>
-      <c r="W13">
+      <c r="AA13">
         <v>0.92589999999999995</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>0.998</v>
       </c>
-      <c r="Y13">
+      <c r="AC13">
         <v>0.95240000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD13">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="AE13">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1213,81 +1416,105 @@
         <v>0.98670000000000002</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>ROUND(AVERAGE(G5:G13), 4)</f>
         <v>0.9304</v>
       </c>
-      <c r="J14" t="s">
+      <c r="H14">
+        <f>ROUND(AVERAGE(H5:H13), 4)</f>
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="I14">
+        <f>ROUND(AVERAGE(I5:I13), 4)</f>
+        <v>0.90659999999999996</v>
+      </c>
+      <c r="L14" t="s">
         <v>16</v>
       </c>
-      <c r="K14">
-        <f>ROUND(AVERAGE(K5:K13), 4)</f>
+      <c r="M14">
+        <f t="shared" ref="M14:R14" si="1">ROUND(AVERAGE(M5:M13), 4)</f>
         <v>0.85819999999999996</v>
       </c>
-      <c r="L14">
-        <f>ROUND(AVERAGE(L5:L13), 4)</f>
+      <c r="N14">
+        <f t="shared" si="1"/>
         <v>0.52110000000000001</v>
       </c>
-      <c r="M14">
-        <f>ROUND(AVERAGE(M5:M13), 4)</f>
+      <c r="O14">
+        <f t="shared" si="1"/>
         <v>0.98140000000000005</v>
       </c>
-      <c r="N14">
-        <f>ROUND(AVERAGE(N5:N13), 4)</f>
+      <c r="P14">
+        <f t="shared" si="1"/>
         <v>0.89580000000000004</v>
       </c>
-      <c r="O14">
-        <f>ROUND(AVERAGE(O5:O13), 4)</f>
+      <c r="Q14">
+        <f t="shared" si="1"/>
         <v>0.98329999999999995</v>
       </c>
-      <c r="P14">
-        <f>ROUND(AVERAGE(P5:P13), 4)</f>
+      <c r="R14">
+        <f t="shared" si="1"/>
         <v>0.88470000000000004</v>
       </c>
-      <c r="S14" t="s">
-        <v>16</v>
+      <c r="S14">
+        <f>ROUND(AVERAGE(S5:S13), 4)</f>
+        <v>0.89990000000000003</v>
       </c>
       <c r="T14">
         <f>ROUND(AVERAGE(T5:T13), 4)</f>
+        <v>0.80820000000000003</v>
+      </c>
+      <c r="W14" t="s">
+        <v>16</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:AC14" si="2">ROUND(AVERAGE(X5:X13), 4)</f>
         <v>0.84419999999999995</v>
       </c>
-      <c r="U14">
-        <f>ROUND(AVERAGE(U5:U13), 4)</f>
+      <c r="Y14">
+        <f t="shared" si="2"/>
         <v>0.53359999999999996</v>
       </c>
-      <c r="V14">
-        <f>ROUND(AVERAGE(V5:V13), 4)</f>
+      <c r="Z14">
+        <f t="shared" si="2"/>
         <v>0.97550000000000003</v>
       </c>
-      <c r="W14">
-        <f>ROUND(AVERAGE(W5:W13), 4)</f>
+      <c r="AA14">
+        <f t="shared" si="2"/>
         <v>0.84419999999999995</v>
       </c>
-      <c r="X14">
-        <f>ROUND(AVERAGE(X5:X13), 4)</f>
+      <c r="AB14">
+        <f t="shared" si="2"/>
         <v>0.96250000000000002</v>
       </c>
-      <c r="Y14">
-        <f>ROUND(AVERAGE(Y5:Y13), 4)</f>
+      <c r="AC14">
+        <f t="shared" si="2"/>
         <v>0.85970000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD14">
+        <f>ROUND(AVERAGE(AD5:AD13), 4)</f>
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="AE14">
+        <f>ROUND(AVERAGE(AE5:AE13), 4)</f>
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>18</v>
       </c>
-      <c r="S19" t="s">
+      <c r="W19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1297,26 +1524,35 @@
       <c r="F20" t="s">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
-        <v>1</v>
+      <c r="H20" t="s">
+        <v>20</v>
       </c>
       <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>2</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>3</v>
       </c>
-      <c r="T20" t="s">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="S20" t="s">
+        <v>20</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z20" t="s">
         <v>2</v>
       </c>
-      <c r="X20" t="s">
+      <c r="AB20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1335,10 +1571,10 @@
       <c r="G21" t="s">
         <v>5</v>
       </c>
-      <c r="K21" t="s">
+      <c r="H21" t="s">
         <v>4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="I21" t="s">
         <v>5</v>
       </c>
       <c r="M21" t="s">
@@ -1353,16 +1589,16 @@
       <c r="P21" t="s">
         <v>5</v>
       </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
       <c r="T21" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" t="s">
         <v>5</v>
       </c>
       <c r="X21" t="s">
@@ -1371,8 +1607,26 @@
       <c r="Y21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1394,50 +1648,68 @@
       <c r="G22">
         <v>0.75609999999999999</v>
       </c>
-      <c r="J22" t="s">
+      <c r="H22">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="I22">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="L22" t="s">
         <v>6</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.95899999999999996</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.94850000000000001</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.93879999999999997</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.9536</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.6835</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22">
+        <v>0.97</v>
+      </c>
+      <c r="T22">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="W22" t="s">
         <v>6</v>
       </c>
-      <c r="T22">
+      <c r="X22">
         <v>0.93940000000000001</v>
       </c>
-      <c r="U22">
+      <c r="Y22">
         <v>0.95830000000000004</v>
       </c>
-      <c r="V22">
+      <c r="Z22">
         <v>0.98719999999999997</v>
       </c>
-      <c r="W22">
+      <c r="AA22">
         <v>0.94850000000000001</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.96299999999999997</v>
       </c>
-      <c r="Y22">
+      <c r="AC22">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD22">
+        <v>0.96</v>
+      </c>
+      <c r="AE22">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1459,50 +1731,68 @@
       <c r="G23">
         <v>0.87639999999999996</v>
       </c>
-      <c r="J23" t="s">
+      <c r="H23">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="I23">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="L23" t="s">
         <v>7</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.88759999999999994</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.21429999999999999</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.97399999999999998</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.14810000000000001</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.98440000000000005</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>0.33329999999999999</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="T23">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="W23" t="s">
         <v>7</v>
       </c>
-      <c r="T23">
+      <c r="X23">
         <v>0.88280000000000003</v>
       </c>
-      <c r="U23">
+      <c r="Y23">
         <v>0.18179999999999999</v>
       </c>
-      <c r="V23">
+      <c r="Z23">
         <v>0.98040000000000005</v>
       </c>
-      <c r="W23">
+      <c r="AA23">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>0.97640000000000005</v>
       </c>
-      <c r="Y23">
+      <c r="AC23">
         <v>0.33329999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD23">
+        <v>0.9204</v>
+      </c>
+      <c r="AE23">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1524,50 +1814,68 @@
       <c r="G24">
         <v>0.99009999999999998</v>
       </c>
-      <c r="J24" t="s">
+      <c r="H24">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="L24" t="s">
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.96760000000000002</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.96970000000000001</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.98319999999999996</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.98</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="T24">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="W24" t="s">
         <v>8</v>
       </c>
-      <c r="T24">
+      <c r="X24">
         <v>0.96919999999999995</v>
       </c>
-      <c r="U24">
+      <c r="Y24">
         <v>0.89129999999999998</v>
       </c>
-      <c r="V24">
+      <c r="Z24">
         <v>0.97919999999999996</v>
       </c>
-      <c r="W24">
+      <c r="AA24">
         <v>0.9032</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="AE24">
+        <v>0.91739999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1589,50 +1897,68 @@
       <c r="G25">
         <v>0.95050000000000001</v>
       </c>
-      <c r="J25" t="s">
+      <c r="H25">
+        <v>0.9788</v>
+      </c>
+      <c r="I25">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="L25" t="s">
         <v>9</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>0.89439999999999997</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.75560000000000005</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.88680000000000003</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.94920000000000004</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>0.94120000000000004</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="T25">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="W25" t="s">
         <v>9</v>
       </c>
-      <c r="T25">
+      <c r="X25">
         <v>0.78480000000000005</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>0.51349999999999996</v>
       </c>
-      <c r="V25">
+      <c r="Z25">
         <v>0.82320000000000004</v>
       </c>
-      <c r="W25">
+      <c r="AA25">
         <v>0.39389999999999997</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>0.95960000000000001</v>
       </c>
-      <c r="Y25">
+      <c r="AC25">
         <v>0.61329999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD25">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="AE25">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1654,50 +1980,68 @@
       <c r="G26">
         <v>0.57140000000000002</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H26">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="L26" t="s">
         <v>10</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.99160000000000004</v>
-      </c>
-      <c r="L26">
-        <v>0.96</v>
-      </c>
-      <c r="M26">
-        <v>0.98919999999999997</v>
       </c>
       <c r="N26">
         <v>0.96</v>
       </c>
       <c r="O26">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="P26">
+        <v>0.96</v>
+      </c>
+      <c r="Q26">
         <v>0.9556</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>0.1111</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26">
+        <v>0.9748</v>
+      </c>
+      <c r="T26">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="W26" t="s">
         <v>10</v>
       </c>
-      <c r="T26">
+      <c r="X26">
         <v>0.96560000000000001</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>0.94950000000000001</v>
       </c>
-      <c r="V26">
+      <c r="Z26">
         <v>0.96799999999999997</v>
       </c>
-      <c r="W26">
+      <c r="AA26">
         <v>0.92159999999999997</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.87560000000000004</v>
       </c>
-      <c r="Y26">
+      <c r="AC26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD26">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AE26">
+        <v>0.86960000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1719,50 +2063,68 @@
       <c r="G27">
         <v>0.98</v>
       </c>
-      <c r="J27" t="s">
+      <c r="H27">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="I27">
+        <v>0.84750000000000003</v>
+      </c>
+      <c r="L27" t="s">
         <v>11</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.92320000000000002</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.78649999999999998</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.97440000000000004</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.95150000000000001</v>
       </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0.9728</v>
+      </c>
+      <c r="T27">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="W27" t="s">
         <v>11</v>
       </c>
-      <c r="T27">
+      <c r="X27">
         <v>0.85319999999999996</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>0.39389999999999997</v>
       </c>
-      <c r="V27">
+      <c r="Z27">
         <v>0.92079999999999995</v>
       </c>
-      <c r="W27">
+      <c r="AA27">
         <v>0.81720000000000004</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>0.96</v>
       </c>
-      <c r="Y27">
+      <c r="AC27">
         <v>0.64939999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD27">
+        <v>0.93</v>
+      </c>
+      <c r="AE27">
+        <v>0.89290000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1784,50 +2146,68 @@
       <c r="G28">
         <v>0.95240000000000002</v>
       </c>
-      <c r="J28" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="L28" t="s">
         <v>12</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.96160000000000001</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>0.96079999999999999</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.99960000000000004</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>0.97089999999999999</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.97960000000000003</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>0.96150000000000002</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28">
+        <v>0.97</v>
+      </c>
+      <c r="T28">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="W28" t="s">
         <v>12</v>
       </c>
-      <c r="T28">
+      <c r="X28">
         <v>0.94199999999999995</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>0.84209999999999996</v>
       </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>0.94340000000000002</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>0.97519999999999996</v>
       </c>
-      <c r="Y28">
+      <c r="AC28">
         <v>0.97089999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD28">
+        <v>0.94</v>
+      </c>
+      <c r="AE28">
+        <v>0.84750000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1849,50 +2229,68 @@
       <c r="G29">
         <v>0.77649999999999997</v>
       </c>
-      <c r="J29" t="s">
+      <c r="H29">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="I29">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="L29" t="s">
         <v>13</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.89759999999999995</v>
-      </c>
-      <c r="L29">
-        <v>0.1754</v>
-      </c>
-      <c r="M29">
-        <v>0.92720000000000002</v>
       </c>
       <c r="N29">
         <v>0.1754</v>
       </c>
       <c r="O29">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="P29">
+        <v>0.1754</v>
+      </c>
+      <c r="Q29">
         <v>0.93920000000000003</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>0.8478</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="T29">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="W29" t="s">
         <v>13</v>
       </c>
-      <c r="T29">
+      <c r="X29">
         <v>0.89</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>0.1429</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>0.88600000000000001</v>
       </c>
-      <c r="W29">
+      <c r="AA29">
         <v>0.1404</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>0.91659999999999997</v>
       </c>
-      <c r="Y29">
+      <c r="AC29">
         <v>0.67469999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD29">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="AE29">
+        <v>0.85470000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1914,59 +2312,77 @@
       <c r="G30">
         <v>0.88419999999999999</v>
       </c>
-      <c r="J30" t="s">
+      <c r="H30">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="I30">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="L30" t="s">
         <v>14</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.97089999999999999</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.99919999999999998</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.98040000000000005</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.9476</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>0.62160000000000004</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="T30">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="W30" t="s">
         <v>14</v>
       </c>
-      <c r="T30">
+      <c r="X30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="U30">
+      <c r="Y30">
         <v>0.98</v>
       </c>
-      <c r="V30">
+      <c r="Z30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="W30">
+      <c r="AA30">
         <v>0.99009999999999998</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>0.95760000000000001</v>
       </c>
-      <c r="Y30">
+      <c r="AC30">
         <v>0.61109999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AD30">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="AE30">
+        <v>0.85470000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:G31" si="1">ROUND(AVERAGE(B22:B30), 4)</f>
+        <f t="shared" ref="B31:G31" si="3">ROUND(AVERAGE(B22:B30), 4)</f>
         <v>0.95779999999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85360000000000003</v>
       </c>
       <c r="D31">
@@ -1974,70 +2390,94 @@
         <v>0.96740000000000004</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85009999999999997</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98709999999999998</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f>ROUND(AVERAGE(G22:G30), 4)</f>
         <v>0.85970000000000002</v>
       </c>
-      <c r="J31" t="s">
+      <c r="H31">
+        <f>ROUND(AVERAGE(H22:H30), 4)</f>
+        <v>0.98740000000000006</v>
+      </c>
+      <c r="I31">
+        <f>ROUND(AVERAGE(I22:I30), 4)</f>
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="L31" t="s">
         <v>16</v>
       </c>
-      <c r="K31">
-        <f>ROUND(AVERAGE(K22:K30), 4)</f>
+      <c r="M31">
+        <f t="shared" ref="M31:R31" si="4">ROUND(AVERAGE(M22:M30), 4)</f>
         <v>0.9425</v>
       </c>
-      <c r="L31">
-        <f>ROUND(AVERAGE(L22:L30), 4)</f>
+      <c r="N31">
+        <f t="shared" si="4"/>
         <v>0.74909999999999999</v>
       </c>
-      <c r="M31">
-        <f>ROUND(AVERAGE(M22:M30), 4)</f>
+      <c r="O31">
+        <f t="shared" si="4"/>
         <v>0.96970000000000001</v>
       </c>
-      <c r="N31">
-        <f>ROUND(AVERAGE(N22:N30), 4)</f>
+      <c r="P31">
+        <f t="shared" si="4"/>
         <v>0.75919999999999999</v>
       </c>
-      <c r="O31">
-        <f>ROUND(AVERAGE(O22:O30), 4)</f>
+      <c r="Q31">
+        <f t="shared" si="4"/>
         <v>0.9677</v>
       </c>
-      <c r="P31">
-        <f>ROUND(AVERAGE(P22:P30), 4)</f>
+      <c r="R31">
+        <f t="shared" si="4"/>
         <v>0.72219999999999995</v>
       </c>
-      <c r="S31" t="s">
-        <v>16</v>
+      <c r="S31">
+        <f>ROUND(AVERAGE(S22:S30), 4)</f>
+        <v>0.96799999999999997</v>
       </c>
       <c r="T31">
         <f>ROUND(AVERAGE(T22:T30), 4)</f>
+        <v>0.87480000000000002</v>
+      </c>
+      <c r="W31" t="s">
+        <v>16</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31:AC31" si="5">ROUND(AVERAGE(X22:X30), 4)</f>
         <v>0.91410000000000002</v>
       </c>
-      <c r="U31">
-        <f>ROUND(AVERAGE(U22:U30), 4)</f>
+      <c r="Y31">
+        <f t="shared" si="5"/>
         <v>0.65039999999999998</v>
       </c>
-      <c r="V31">
-        <f>ROUND(AVERAGE(V22:V30), 4)</f>
+      <c r="Z31">
+        <f t="shared" si="5"/>
         <v>0.94940000000000002</v>
       </c>
-      <c r="W31">
-        <f>ROUND(AVERAGE(W22:W30), 4)</f>
+      <c r="AA31">
+        <f t="shared" si="5"/>
         <v>0.68169999999999997</v>
       </c>
-      <c r="X31">
-        <f>ROUND(AVERAGE(X22:X30), 4)</f>
+      <c r="AB31">
+        <f t="shared" si="5"/>
         <v>0.95379999999999998</v>
       </c>
-      <c r="Y31">
-        <f>ROUND(AVERAGE(Y22:Y30), 4)</f>
+      <c r="AC31">
+        <f t="shared" si="5"/>
         <v>0.62219999999999998</v>
+      </c>
+      <c r="AD31">
+        <f>ROUND(AVERAGE(AD22:AD30), 4)</f>
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="AE31">
+        <f>ROUND(AVERAGE(AE22:AE30), 4)</f>
+        <v>0.88049999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE4539-6E75-4ED2-9003-2887278CBC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D551A4-1D19-411B-BB7E-725C21F204F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="22">
   <si>
     <t>k = 20</t>
   </si>
@@ -101,7 +101,7 @@
     <t>ranking + threshold penalty + no PCA</t>
   </si>
   <si>
-    <t>because only layer 34 selected</t>
+    <t>ranking + threshold penalty + no PCA (extended)</t>
   </si>
 </sst>
 </file>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y13" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,38 +498,41 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="39.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -542,32 +545,41 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
-        <v>1</v>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
       <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>3</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>20</v>
       </c>
-      <c r="X3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
         <v>20</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -592,10 +604,10 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="M4" t="s">
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
       <c r="O4" t="s">
@@ -616,16 +628,16 @@
       <c r="T4" t="s">
         <v>5</v>
       </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
       <c r="X4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA4" t="s">
         <v>5</v>
       </c>
       <c r="AB4" t="s">
@@ -640,8 +652,26 @@
       <c r="AE4" t="s">
         <v>5</v>
       </c>
+      <c r="AF4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -669,62 +699,80 @@
       <c r="I5">
         <v>0.86960000000000004</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J5">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.97640000000000005</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>0.92779999999999996</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>0.99919999999999998</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.96909999999999996</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0.99039999999999995</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.90910000000000002</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="X5">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="AA5" t="s">
         <v>6</v>
       </c>
-      <c r="X5">
+      <c r="AB5">
         <v>0.96399999999999997</v>
       </c>
-      <c r="Y5">
+      <c r="AC5">
         <v>0.92930000000000001</v>
       </c>
-      <c r="Z5">
+      <c r="AD5">
         <v>0.99839999999999995</v>
-      </c>
-      <c r="AA5">
-        <v>0.91739999999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="AC5">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="AD5">
-        <v>0.97819999999999996</v>
       </c>
       <c r="AE5">
         <v>0.91739999999999999</v>
       </c>
+      <c r="AF5">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="AG5">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="AI5">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="AK5">
+        <v>0.83330000000000004</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -752,62 +800,80 @@
       <c r="I6">
         <v>0.91739999999999999</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.99480000000000002</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>0.91669999999999996</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.96240000000000003</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.88660000000000005</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>0.85060000000000002</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>0.98</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.89290000000000003</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="X6">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="AA6" t="s">
         <v>7</v>
       </c>
-      <c r="X6">
+      <c r="AB6">
         <v>0.98919999999999997</v>
       </c>
-      <c r="Y6">
+      <c r="AC6">
         <v>0.95920000000000005</v>
       </c>
-      <c r="Z6">
+      <c r="AD6">
         <v>0.9304</v>
       </c>
-      <c r="AA6">
+      <c r="AE6">
         <v>0.87039999999999995</v>
       </c>
-      <c r="AB6">
+      <c r="AF6">
         <v>0.96160000000000001</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>0.62339999999999995</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>0.98899999999999999</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>0.84030000000000005</v>
       </c>
+      <c r="AJ6">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="AK6">
+        <v>0.81969999999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -835,62 +901,80 @@
       <c r="I7">
         <v>0.82140000000000002</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="N7" t="s">
         <v>8</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.86119999999999997</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0.66669999999999996</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
         <v>0.99009999999999998</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>0.97040000000000004</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>0.91669999999999996</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0.8276</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.82140000000000002</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="X7">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="AA7" t="s">
         <v>8</v>
       </c>
-      <c r="X7">
+      <c r="AB7">
         <v>0.92879999999999996</v>
       </c>
-      <c r="Y7">
+      <c r="AC7">
         <v>0.63009999999999999</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
         <v>0.89290000000000003</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <v>0.98599999999999999</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>0.96150000000000002</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>0.9234</v>
       </c>
-      <c r="AE7">
+      <c r="AI7">
         <v>0.8649</v>
       </c>
+      <c r="AJ7">
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="AK7">
+        <v>0.80649999999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -918,62 +1002,80 @@
       <c r="I8">
         <v>0.94340000000000002</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J8">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="K8">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="N8" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>0.65</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.99080000000000001</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.9032</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>0.99439999999999995</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.93330000000000002</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>0.98019999999999996</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.95240000000000002</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="AA8" t="s">
         <v>9</v>
       </c>
-      <c r="X8">
+      <c r="AB8">
         <v>0.62</v>
       </c>
-      <c r="Y8">
+      <c r="AC8">
         <v>3.85E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AD8">
         <v>0.93159999999999998</v>
       </c>
-      <c r="AA8">
+      <c r="AE8">
         <v>0.43080000000000002</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <v>0.9032</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>0.72940000000000005</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>0.9214</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>0.84209999999999996</v>
       </c>
+      <c r="AJ8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AK8">
+        <v>0.7752</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1001,65 +1103,80 @@
       <c r="I9">
         <v>0.90380000000000005</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J9">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.8468</v>
+      </c>
+      <c r="N9" t="s">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.90280000000000005</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.36070000000000002</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0.88839999999999997</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>0.3871</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <v>0.46</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="W9">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="X9">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="AA9" t="s">
         <v>10</v>
       </c>
-      <c r="X9">
+      <c r="AB9">
         <v>0.97119999999999995</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <v>0.92469999999999997</v>
       </c>
-      <c r="Z9">
+      <c r="AD9">
         <v>0.95479999999999998</v>
       </c>
-      <c r="AA9">
+      <c r="AE9">
         <v>0.90720000000000001</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <v>0.88080000000000003</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>0.69879999999999998</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>0.86439999999999995</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>0.8246</v>
       </c>
+      <c r="AJ9">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="AK9">
+        <v>0.7742</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1087,21 +1204,21 @@
       <c r="I10">
         <v>0.93459999999999999</v>
       </c>
-      <c r="L10" t="s">
+      <c r="J10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="K10">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="N10" t="s">
         <v>11</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.87239999999999995</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>0.46150000000000002</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -1109,40 +1226,58 @@
         <v>1</v>
       </c>
       <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
         <v>0.92520000000000002</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.94340000000000002</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10">
+        <v>0.999</v>
+      </c>
+      <c r="X10">
+        <v>0.82640000000000002</v>
+      </c>
+      <c r="AA10" t="s">
         <v>11</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <v>0.69040000000000001</v>
       </c>
-      <c r="Y10">
+      <c r="AC10">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
         <v>0.86209999999999998</v>
       </c>
-      <c r="AB10">
+      <c r="AF10">
         <v>0.93920000000000003</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>0.89290000000000003</v>
       </c>
-      <c r="AD10">
+      <c r="AH10">
         <v>0.84660000000000002</v>
       </c>
-      <c r="AE10">
+      <c r="AI10">
         <v>0.82640000000000002</v>
       </c>
+      <c r="AJ10">
+        <v>0.9002</v>
+      </c>
+      <c r="AK10">
+        <v>0.76339999999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1170,62 +1305,80 @@
       <c r="I11">
         <v>0.92589999999999995</v>
       </c>
-      <c r="L11" t="s">
+      <c r="J11">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="N11" t="s">
         <v>12</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.84799999999999998</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>0.67500000000000004</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.99360000000000004</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>0.99919999999999998</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>0.97089999999999999</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0.98499999999999999</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.95240000000000002</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="AA11" t="s">
         <v>12</v>
       </c>
-      <c r="X11">
+      <c r="AB11">
         <v>0.81020000000000003</v>
       </c>
-      <c r="Y11">
+      <c r="AC11">
         <v>0.52780000000000005</v>
       </c>
-      <c r="Z11">
+      <c r="AD11">
         <v>0.98199999999999998</v>
       </c>
-      <c r="AA11">
+      <c r="AE11">
         <v>0.84750000000000003</v>
       </c>
-      <c r="AB11">
+      <c r="AF11">
         <v>0.99919999999999998</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>0.98</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>0.94920000000000004</v>
       </c>
-      <c r="AE11">
+      <c r="AI11">
         <v>0.94230000000000003</v>
       </c>
+      <c r="AJ11">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="AK11">
+        <v>0.87719999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1253,62 +1406,80 @@
       <c r="I12">
         <v>0.93459999999999999</v>
       </c>
-      <c r="L12" t="s">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="N12" t="s">
         <v>13</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.75239999999999996</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>0.96099999999999997</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.91739999999999999</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="X12">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="AA12" t="s">
         <v>13</v>
       </c>
-      <c r="X12">
+      <c r="AB12">
         <v>0.69840000000000002</v>
       </c>
-      <c r="Y12">
+      <c r="AC12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-      <c r="AA12">
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
         <v>0.94340000000000002</v>
       </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-      <c r="AC12">
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
         <v>0.97089999999999999</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>0.94359999999999999</v>
       </c>
-      <c r="AE12">
+      <c r="AI12">
         <v>0.90910000000000002</v>
       </c>
+      <c r="AJ12">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="AK12">
+        <v>0.84030000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1336,67 +1507,85 @@
       <c r="I13">
         <v>0.90910000000000002</v>
       </c>
-      <c r="L13" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="N13" t="s">
         <v>14</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.97040000000000004</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>0.92630000000000001</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.98360000000000003</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0.99839999999999995</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>0.93459999999999999</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>0.98960000000000004</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.88500000000000001</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="X13">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AA13" t="s">
         <v>14</v>
       </c>
-      <c r="X13">
+      <c r="AB13">
         <v>0.92520000000000002</v>
       </c>
-      <c r="Y13">
+      <c r="AC13">
         <v>0.71599999999999997</v>
       </c>
-      <c r="Z13">
+      <c r="AD13">
         <v>0.98240000000000005</v>
-      </c>
-      <c r="AA13">
-        <v>0.92589999999999995</v>
-      </c>
-      <c r="AB13">
-        <v>0.998</v>
-      </c>
-      <c r="AC13">
-        <v>0.95240000000000002</v>
-      </c>
-      <c r="AD13">
-        <v>0.94440000000000002</v>
       </c>
       <c r="AE13">
         <v>0.92589999999999995</v>
       </c>
+      <c r="AF13">
+        <v>0.998</v>
+      </c>
+      <c r="AG13">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="AH13">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="AI13">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AJ13">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="AK13">
+        <v>0.81969999999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:G14" si="0">ROUND(AVERAGE(B5:B13), 4)</f>
+        <f t="shared" ref="B14:E14" si="0">ROUND(AVERAGE(B5:B13), 4)</f>
         <v>0.87539999999999996</v>
       </c>
       <c r="C14">
@@ -1412,109 +1601,133 @@
         <v>0.94030000000000002</v>
       </c>
       <c r="F14">
-        <f>ROUND(AVERAGE(F5:F13), 4)</f>
+        <f t="shared" ref="F14:K14" si="1">ROUND(AVERAGE(F5:F13), 4)</f>
         <v>0.98670000000000002</v>
       </c>
       <c r="G14">
-        <f>ROUND(AVERAGE(G5:G13), 4)</f>
+        <f t="shared" si="1"/>
         <v>0.9304</v>
       </c>
       <c r="H14">
-        <f>ROUND(AVERAGE(H5:H13), 4)</f>
+        <f t="shared" si="1"/>
         <v>0.97189999999999999</v>
       </c>
       <c r="I14">
-        <f>ROUND(AVERAGE(I5:I13), 4)</f>
+        <f t="shared" si="1"/>
         <v>0.90659999999999996</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.9829</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="M14">
-        <f t="shared" ref="M14:R14" si="1">ROUND(AVERAGE(M5:M13), 4)</f>
+      <c r="O14">
+        <f t="shared" ref="O14:T14" si="2">ROUND(AVERAGE(O5:O13), 4)</f>
         <v>0.85819999999999996</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
+      <c r="P14">
+        <f t="shared" si="2"/>
         <v>0.52110000000000001</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
+      <c r="Q14">
+        <f t="shared" si="2"/>
         <v>0.98140000000000005</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="1"/>
+      <c r="R14">
+        <f t="shared" si="2"/>
         <v>0.89580000000000004</v>
       </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
+      <c r="S14">
+        <f t="shared" si="2"/>
         <v>0.98329999999999995</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
+      <c r="T14">
+        <f t="shared" si="2"/>
         <v>0.88470000000000004</v>
       </c>
-      <c r="S14">
-        <f>ROUND(AVERAGE(S5:S13), 4)</f>
+      <c r="U14">
+        <f>ROUND(AVERAGE(U5:U13), 4)</f>
         <v>0.89990000000000003</v>
       </c>
-      <c r="T14">
-        <f>ROUND(AVERAGE(T5:T13), 4)</f>
+      <c r="V14">
+        <f>ROUND(AVERAGE(V5:V13), 4)</f>
         <v>0.80820000000000003</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14">
+        <f>ROUND(AVERAGE(W5:W13), 4)</f>
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="X14">
+        <f>ROUND(AVERAGE(X5:X13), 4)</f>
+        <v>0.85350000000000004</v>
+      </c>
+      <c r="AA14" t="s">
         <v>16</v>
       </c>
-      <c r="X14">
-        <f t="shared" ref="X14:AC14" si="2">ROUND(AVERAGE(X5:X13), 4)</f>
+      <c r="AB14">
+        <f t="shared" ref="AB14:AG14" si="3">ROUND(AVERAGE(AB5:AB13), 4)</f>
         <v>0.84419999999999995</v>
       </c>
-      <c r="Y14">
-        <f t="shared" si="2"/>
+      <c r="AC14">
+        <f t="shared" si="3"/>
         <v>0.53359999999999996</v>
       </c>
-      <c r="Z14">
-        <f t="shared" si="2"/>
+      <c r="AD14">
+        <f t="shared" si="3"/>
         <v>0.97550000000000003</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="2"/>
+      <c r="AE14">
+        <f t="shared" si="3"/>
         <v>0.84419999999999995</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="2"/>
+      <c r="AF14">
+        <f t="shared" si="3"/>
         <v>0.96250000000000002</v>
       </c>
-      <c r="AC14">
-        <f t="shared" si="2"/>
+      <c r="AG14">
+        <f t="shared" si="3"/>
         <v>0.85970000000000002</v>
       </c>
-      <c r="AD14">
-        <f>ROUND(AVERAGE(AD5:AD13), 4)</f>
+      <c r="AH14">
+        <f>ROUND(AVERAGE(AH5:AH13), 4)</f>
         <v>0.92889999999999995</v>
       </c>
-      <c r="AE14">
-        <f>ROUND(AVERAGE(AE5:AE13), 4)</f>
+      <c r="AI14">
+        <f>ROUND(AVERAGE(AI5:AI13), 4)</f>
         <v>0.877</v>
       </c>
+      <c r="AJ14">
+        <f>ROUND(AVERAGE(AJ5:AJ13), 4)</f>
+        <v>0.95760000000000001</v>
+      </c>
+      <c r="AK14">
+        <f>ROUND(AVERAGE(AK5:AK13), 4)</f>
+        <v>0.81220000000000003</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>18</v>
       </c>
-      <c r="W19" t="s">
+      <c r="AA19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -1527,32 +1740,41 @@
       <c r="H20" t="s">
         <v>20</v>
       </c>
-      <c r="M20" t="s">
-        <v>1</v>
+      <c r="J20" t="s">
+        <v>21</v>
       </c>
       <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>3</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>20</v>
       </c>
-      <c r="X20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z20" t="s">
+      <c r="W20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="s">
         <v>2</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AF20" t="s">
         <v>3</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AH20" t="s">
         <v>20</v>
       </c>
+      <c r="AJ20" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>4</v>
       </c>
@@ -1577,10 +1799,10 @@
       <c r="I21" t="s">
         <v>5</v>
       </c>
-      <c r="M21" t="s">
+      <c r="J21" t="s">
         <v>4</v>
       </c>
-      <c r="N21" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
       <c r="O21" t="s">
@@ -1601,16 +1823,16 @@
       <c r="T21" t="s">
         <v>5</v>
       </c>
+      <c r="U21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" t="s">
+        <v>4</v>
+      </c>
       <c r="X21" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" t="s">
         <v>5</v>
       </c>
       <c r="AB21" t="s">
@@ -1625,8 +1847,26 @@
       <c r="AE21" t="s">
         <v>5</v>
       </c>
+      <c r="AF21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1654,62 +1894,80 @@
       <c r="I22">
         <v>0.90090000000000003</v>
       </c>
-      <c r="L22" t="s">
+      <c r="J22">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="K22">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="N22" t="s">
         <v>6</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.95899999999999996</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0.94850000000000001</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>0.99399999999999999</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0.93879999999999997</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>0.9536</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <v>0.6835</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>0.97</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.86209999999999998</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="X22">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA22" t="s">
         <v>6</v>
       </c>
-      <c r="X22">
+      <c r="AB22">
         <v>0.93940000000000001</v>
       </c>
-      <c r="Y22">
+      <c r="AC22">
         <v>0.95830000000000004</v>
       </c>
-      <c r="Z22">
+      <c r="AD22">
         <v>0.98719999999999997</v>
       </c>
-      <c r="AA22">
+      <c r="AE22">
         <v>0.94850000000000001</v>
       </c>
-      <c r="AB22">
+      <c r="AF22">
         <v>0.96299999999999997</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>0.747</v>
       </c>
-      <c r="AD22">
+      <c r="AH22">
         <v>0.96</v>
       </c>
-      <c r="AE22">
+      <c r="AI22">
         <v>0.90910000000000002</v>
       </c>
+      <c r="AJ22">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="AK22">
+        <v>0.90910000000000002</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1737,62 +1995,80 @@
       <c r="I23">
         <v>0.89290000000000003</v>
       </c>
-      <c r="L23" t="s">
+      <c r="J23">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="K23">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="N23" t="s">
         <v>7</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>0.88759999999999994</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>0.21429999999999999</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>0.97399999999999998</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>0.14810000000000001</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>0.98440000000000005</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.33329999999999999</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>0.97940000000000005</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>0.86960000000000004</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23">
+        <v>0.98</v>
+      </c>
+      <c r="X23">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AA23" t="s">
         <v>7</v>
       </c>
-      <c r="X23">
+      <c r="AB23">
         <v>0.88280000000000003</v>
       </c>
-      <c r="Y23">
+      <c r="AC23">
         <v>0.18179999999999999</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
         <v>0.98040000000000005</v>
       </c>
-      <c r="AA23">
+      <c r="AE23">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="AB23">
+      <c r="AF23">
         <v>0.97640000000000005</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AD23">
+      <c r="AH23">
         <v>0.9204</v>
       </c>
-      <c r="AE23">
+      <c r="AI23">
         <v>0.90910000000000002</v>
       </c>
+      <c r="AJ23">
+        <v>0.92</v>
+      </c>
+      <c r="AK23">
+        <v>0.90910000000000002</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1820,62 +2096,80 @@
       <c r="I24">
         <v>0.89290000000000003</v>
       </c>
-      <c r="L24" t="s">
+      <c r="J24">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="K24">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="N24" t="s">
         <v>8</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.96760000000000002</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>0.96970000000000001</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>0.98319999999999996</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>0.98</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
         <v>0.98919999999999997</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.90090000000000003</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="X24">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AA24" t="s">
         <v>8</v>
       </c>
-      <c r="X24">
+      <c r="AB24">
         <v>0.96919999999999995</v>
       </c>
-      <c r="Y24">
+      <c r="AC24">
         <v>0.89129999999999998</v>
       </c>
-      <c r="Z24">
+      <c r="AD24">
         <v>0.97919999999999996</v>
       </c>
-      <c r="AA24">
+      <c r="AE24">
         <v>0.9032</v>
       </c>
-      <c r="AB24">
-        <v>1</v>
-      </c>
-      <c r="AC24">
-        <v>1</v>
-      </c>
-      <c r="AD24">
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
         <v>0.97240000000000004</v>
       </c>
-      <c r="AE24">
+      <c r="AI24">
         <v>0.91739999999999999</v>
       </c>
+      <c r="AJ24">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="AK24">
+        <v>0.92589999999999995</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1903,62 +2197,80 @@
       <c r="I25">
         <v>0.90090000000000003</v>
       </c>
-      <c r="L25" t="s">
+      <c r="J25">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="K25">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="N25" t="s">
         <v>9</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.89439999999999997</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>0.75560000000000005</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>0.88680000000000003</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>0.72729999999999995</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0.94920000000000004</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>0.94120000000000004</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>0.95940000000000003</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>0.90090000000000003</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="X25">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA25" t="s">
         <v>9</v>
       </c>
-      <c r="X25">
+      <c r="AB25">
         <v>0.78480000000000005</v>
       </c>
-      <c r="Y25">
+      <c r="AC25">
         <v>0.51349999999999996</v>
       </c>
-      <c r="Z25">
+      <c r="AD25">
         <v>0.82320000000000004</v>
       </c>
-      <c r="AA25">
+      <c r="AE25">
         <v>0.39389999999999997</v>
       </c>
-      <c r="AB25">
+      <c r="AF25">
         <v>0.95960000000000001</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>0.61329999999999996</v>
       </c>
-      <c r="AD25">
+      <c r="AH25">
         <v>0.95440000000000003</v>
       </c>
-      <c r="AE25">
+      <c r="AI25">
         <v>0.86960000000000004</v>
       </c>
+      <c r="AJ25">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AK25">
+        <v>0.87719999999999998</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1986,62 +2298,80 @@
       <c r="I26">
         <v>0.90090000000000003</v>
       </c>
-      <c r="L26" t="s">
+      <c r="J26">
+        <v>0.98380000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="N26" t="s">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.99160000000000004</v>
-      </c>
-      <c r="N26">
-        <v>0.96</v>
-      </c>
-      <c r="O26">
-        <v>0.98919999999999997</v>
       </c>
       <c r="P26">
         <v>0.96</v>
       </c>
       <c r="Q26">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="R26">
+        <v>0.96</v>
+      </c>
+      <c r="S26">
         <v>0.9556</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <v>0.1111</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>0.9748</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.93459999999999999</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="X26">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="AA26" t="s">
         <v>10</v>
       </c>
-      <c r="X26">
+      <c r="AB26">
         <v>0.96560000000000001</v>
       </c>
-      <c r="Y26">
+      <c r="AC26">
         <v>0.94950000000000001</v>
       </c>
-      <c r="Z26">
+      <c r="AD26">
         <v>0.96799999999999997</v>
       </c>
-      <c r="AA26">
+      <c r="AE26">
         <v>0.92159999999999997</v>
       </c>
-      <c r="AB26">
+      <c r="AF26">
         <v>0.87560000000000004</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>0</v>
       </c>
-      <c r="AD26">
+      <c r="AH26">
         <v>0.90800000000000003</v>
       </c>
-      <c r="AE26">
+      <c r="AI26">
         <v>0.86960000000000004</v>
       </c>
+      <c r="AJ26">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="AK26">
+        <v>0.88500000000000001</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2069,62 +2399,80 @@
       <c r="I27">
         <v>0.84750000000000003</v>
       </c>
-      <c r="L27" t="s">
+      <c r="J27">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="K27">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="N27" t="s">
         <v>11</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.92320000000000002</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.78649999999999998</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.97440000000000004</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>0.95150000000000001</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <v>1</v>
-      </c>
       <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
         <v>0.9728</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.85470000000000002</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="X27">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="AA27" t="s">
         <v>11</v>
       </c>
-      <c r="X27">
+      <c r="AB27">
         <v>0.85319999999999996</v>
       </c>
-      <c r="Y27">
+      <c r="AC27">
         <v>0.39389999999999997</v>
       </c>
-      <c r="Z27">
+      <c r="AD27">
         <v>0.92079999999999995</v>
       </c>
-      <c r="AA27">
+      <c r="AE27">
         <v>0.81720000000000004</v>
       </c>
-      <c r="AB27">
+      <c r="AF27">
         <v>0.96</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>0.64939999999999998</v>
       </c>
-      <c r="AD27">
+      <c r="AH27">
         <v>0.93</v>
       </c>
-      <c r="AE27">
+      <c r="AI27">
         <v>0.89290000000000003</v>
       </c>
+      <c r="AJ27">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="AK27">
+        <v>0.90910000000000002</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2152,62 +2500,80 @@
       <c r="I28">
         <v>0.84030000000000005</v>
       </c>
-      <c r="L28" t="s">
+      <c r="J28">
+        <v>0.99</v>
+      </c>
+      <c r="K28">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="N28" t="s">
         <v>12</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.96160000000000001</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>0.96079999999999999</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>0.97089999999999999</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>0.97960000000000003</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>0.96150000000000002</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>0.97</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.83330000000000004</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28">
+        <v>0.97</v>
+      </c>
+      <c r="X28">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AA28" t="s">
         <v>12</v>
       </c>
-      <c r="X28">
+      <c r="AB28">
         <v>0.94199999999999995</v>
       </c>
-      <c r="Y28">
+      <c r="AC28">
         <v>0.84209999999999996</v>
       </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
         <v>0.94340000000000002</v>
       </c>
-      <c r="AB28">
+      <c r="AF28">
         <v>0.97519999999999996</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>0.97089999999999999</v>
       </c>
-      <c r="AD28">
+      <c r="AH28">
         <v>0.94</v>
       </c>
-      <c r="AE28">
+      <c r="AI28">
         <v>0.84750000000000003</v>
       </c>
+      <c r="AJ28">
+        <v>0.94</v>
+      </c>
+      <c r="AK28">
+        <v>0.86209999999999998</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2235,62 +2601,80 @@
       <c r="I29">
         <v>0.87719999999999998</v>
       </c>
-      <c r="L29" t="s">
+      <c r="J29">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K29">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="N29" t="s">
         <v>13</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.89759999999999995</v>
-      </c>
-      <c r="N29">
-        <v>0.1754</v>
-      </c>
-      <c r="O29">
-        <v>0.92720000000000002</v>
       </c>
       <c r="P29">
         <v>0.1754</v>
       </c>
       <c r="Q29">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="R29">
+        <v>0.1754</v>
+      </c>
+      <c r="S29">
         <v>0.93920000000000003</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>0.8478</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>0.92979999999999996</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>0.87719999999999998</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="X29">
+        <v>0.90090000000000003</v>
+      </c>
+      <c r="AA29" t="s">
         <v>13</v>
       </c>
-      <c r="X29">
+      <c r="AB29">
         <v>0.89</v>
       </c>
-      <c r="Y29">
+      <c r="AC29">
         <v>0.1429</v>
       </c>
-      <c r="Z29">
+      <c r="AD29">
         <v>0.88600000000000001</v>
       </c>
-      <c r="AA29">
+      <c r="AE29">
         <v>0.1404</v>
       </c>
-      <c r="AB29">
+      <c r="AF29">
         <v>0.91659999999999997</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>0.67469999999999997</v>
       </c>
-      <c r="AD29">
+      <c r="AH29">
         <v>0.91020000000000001</v>
       </c>
-      <c r="AE29">
+      <c r="AI29">
         <v>0.85470000000000002</v>
       </c>
+      <c r="AJ29">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="AK29">
+        <v>0.89290000000000003</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2318,71 +2702,89 @@
       <c r="I30">
         <v>0.87719999999999998</v>
       </c>
-      <c r="L30" t="s">
+      <c r="J30">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="K30">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>0.97089999999999999</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>0.99919999999999998</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>0.9476</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <v>0.62160000000000004</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>0.96619999999999995</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>0.84030000000000005</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="X30">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="AA30" t="s">
         <v>14</v>
       </c>
-      <c r="X30">
+      <c r="AB30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="Y30">
+      <c r="AC30">
         <v>0.98</v>
       </c>
-      <c r="Z30">
+      <c r="AD30">
         <v>0.99960000000000004</v>
       </c>
-      <c r="AA30">
+      <c r="AE30">
         <v>0.99009999999999998</v>
       </c>
-      <c r="AB30">
+      <c r="AF30">
         <v>0.95760000000000001</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>0.61109999999999998</v>
       </c>
-      <c r="AD30">
+      <c r="AH30">
         <v>0.99360000000000004</v>
       </c>
-      <c r="AE30">
+      <c r="AI30">
         <v>0.85470000000000002</v>
       </c>
+      <c r="AJ30">
+        <v>0.99</v>
+      </c>
+      <c r="AK30">
+        <v>0.92589999999999995</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:G31" si="3">ROUND(AVERAGE(B22:B30), 4)</f>
+        <f t="shared" ref="B31:F31" si="4">ROUND(AVERAGE(B22:B30), 4)</f>
         <v>0.95779999999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85360000000000003</v>
       </c>
       <c r="D31">
@@ -2390,11 +2792,11 @@
         <v>0.96740000000000004</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85009999999999997</v>
       </c>
       <c r="F31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98709999999999998</v>
       </c>
       <c r="G31">
@@ -2409,75 +2811,99 @@
         <f>ROUND(AVERAGE(I22:I30), 4)</f>
         <v>0.88119999999999998</v>
       </c>
-      <c r="L31" t="s">
+      <c r="J31">
+        <f>ROUND(AVERAGE(J22:J30), 4)</f>
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="K31">
+        <f>ROUND(AVERAGE(K22:K30), 4)</f>
+        <v>0.9274</v>
+      </c>
+      <c r="N31" t="s">
         <v>16</v>
       </c>
-      <c r="M31">
-        <f t="shared" ref="M31:R31" si="4">ROUND(AVERAGE(M22:M30), 4)</f>
+      <c r="O31">
+        <f t="shared" ref="O31:T31" si="5">ROUND(AVERAGE(O22:O30), 4)</f>
         <v>0.9425</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="4"/>
+      <c r="P31">
+        <f t="shared" si="5"/>
         <v>0.74909999999999999</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="4"/>
+      <c r="Q31">
+        <f t="shared" si="5"/>
         <v>0.96970000000000001</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="4"/>
+      <c r="R31">
+        <f t="shared" si="5"/>
         <v>0.75919999999999999</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
+      <c r="S31">
+        <f t="shared" si="5"/>
         <v>0.9677</v>
       </c>
-      <c r="R31">
-        <f t="shared" si="4"/>
+      <c r="T31">
+        <f t="shared" si="5"/>
         <v>0.72219999999999995</v>
       </c>
-      <c r="S31">
-        <f>ROUND(AVERAGE(S22:S30), 4)</f>
+      <c r="U31">
+        <f>ROUND(AVERAGE(U22:U30), 4)</f>
         <v>0.96799999999999997</v>
       </c>
-      <c r="T31">
-        <f>ROUND(AVERAGE(T22:T30), 4)</f>
+      <c r="V31">
+        <f>ROUND(AVERAGE(V22:V30), 4)</f>
         <v>0.87480000000000002</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31">
+        <f>ROUND(AVERAGE(W22:W30), 4)</f>
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="X31">
+        <f>ROUND(AVERAGE(X22:X30), 4)</f>
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="AA31" t="s">
         <v>16</v>
       </c>
-      <c r="X31">
-        <f t="shared" ref="X31:AC31" si="5">ROUND(AVERAGE(X22:X30), 4)</f>
+      <c r="AB31">
+        <f t="shared" ref="AB31:AG31" si="6">ROUND(AVERAGE(AB22:AB30), 4)</f>
         <v>0.91410000000000002</v>
       </c>
-      <c r="Y31">
-        <f t="shared" si="5"/>
+      <c r="AC31">
+        <f t="shared" si="6"/>
         <v>0.65039999999999998</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="5"/>
+      <c r="AD31">
+        <f t="shared" si="6"/>
         <v>0.94940000000000002</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="5"/>
+      <c r="AE31">
+        <f t="shared" si="6"/>
         <v>0.68169999999999997</v>
       </c>
-      <c r="AB31">
-        <f t="shared" si="5"/>
+      <c r="AF31">
+        <f t="shared" si="6"/>
         <v>0.95379999999999998</v>
       </c>
-      <c r="AC31">
-        <f t="shared" si="5"/>
+      <c r="AG31">
+        <f t="shared" si="6"/>
         <v>0.62219999999999998</v>
       </c>
-      <c r="AD31">
-        <f>ROUND(AVERAGE(AD22:AD30), 4)</f>
+      <c r="AH31">
+        <f>ROUND(AVERAGE(AH22:AH30), 4)</f>
         <v>0.94320000000000004</v>
       </c>
-      <c r="AE31">
-        <f>ROUND(AVERAGE(AE22:AE30), 4)</f>
+      <c r="AI31">
+        <f>ROUND(AVERAGE(AI22:AI30), 4)</f>
         <v>0.88049999999999995</v>
+      </c>
+      <c r="AJ31">
+        <f>ROUND(AVERAGE(AJ22:AJ30), 4)</f>
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="AK31">
+        <f>ROUND(AVERAGE(AK22:AK30), 4)</f>
+        <v>0.89959999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D551A4-1D19-411B-BB7E-725C21F204F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B659E73-7671-44AC-A74E-EB494422003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,11 +1585,11 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:E14" si="0">ROUND(AVERAGE(B5:B13), 4)</f>
+        <f>ROUND(AVERAGE(B5:B13), 4)</f>
         <v>0.87539999999999996</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B14:E14" si="0">ROUND(AVERAGE(C5:C13), 4)</f>
         <v>0.66349999999999998</v>
       </c>
       <c r="D14">

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B659E73-7671-44AC-A74E-EB494422003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAEE960-5754-4E9C-BEC6-60B9D15B6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -484,16 +484,16 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
@@ -502,12 +502,15 @@
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0.109375" customWidth="1"/>
     <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.88671875" customWidth="1"/>
+    <col min="30" max="31" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="39.21875" bestFit="1" customWidth="1"/>
@@ -1589,7 +1592,7 @@
         <v>0.87539999999999996</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="B14:E14" si="0">ROUND(AVERAGE(C5:C13), 4)</f>
+        <f t="shared" ref="C14:E14" si="0">ROUND(AVERAGE(C5:C13), 4)</f>
         <v>0.66349999999999998</v>
       </c>
       <c r="D14">
@@ -2799,9 +2802,9 @@
         <f t="shared" si="4"/>
         <v>0.98709999999999998</v>
       </c>
-      <c r="G31">
-        <f>ROUND(AVERAGE(G22:G30), 4)</f>
-        <v>0.85970000000000002</v>
+      <c r="G31" t="b">
+        <f>B5=ROUND(AVERAGE(G22:G30), 4)</f>
+        <v>0</v>
       </c>
       <c r="H31">
         <f>ROUND(AVERAGE(H22:H30), 4)</f>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAEE960-5754-4E9C-BEC6-60B9D15B6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BADFF-09DE-443B-8E5B-8696FA1658ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,8 +496,8 @@
     <col min="5" max="5" width="0.109375" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="8" max="8" width="30.21875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="39.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -506,14 +506,17 @@
     <col min="17" max="17" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0.109375" customWidth="1"/>
     <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="30.21875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="0.109375" customWidth="1"/>
     <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" customWidth="1"/>
-    <col min="30" max="31" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8" customWidth="1"/>
+    <col min="30" max="31" width="0.109375" customWidth="1"/>
     <col min="32" max="32" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="0.109375" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -2783,11 +2786,11 @@
         <v>16</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:F31" si="4">ROUND(AVERAGE(B22:B30), 4)</f>
+        <f>ROUND(AVERAGE(B22:B30), 4)</f>
         <v>0.95779999999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B31:F31" si="4">ROUND(AVERAGE(C22:C30), 4)</f>
         <v>0.85360000000000003</v>
       </c>
       <c r="D31">
@@ -2799,12 +2802,12 @@
         <v>0.85009999999999997</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f>ROUND(AVERAGE(F22:F30), 4)</f>
         <v>0.98709999999999998</v>
       </c>
-      <c r="G31" t="b">
-        <f>B5=ROUND(AVERAGE(G22:G30), 4)</f>
-        <v>0</v>
+      <c r="G31">
+        <f>ROUND(AVERAGE(G22:G30), 4)</f>
+        <v>0.85970000000000002</v>
       </c>
       <c r="H31">
         <f>ROUND(AVERAGE(H22:H30), 4)</f>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22BADFF-09DE-443B-8E5B-8696FA1658ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF6E76-5222-4A2B-ADEF-BA2D86D9BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
   <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,10 +492,10 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="0.33203125" customWidth="1"/>
-    <col min="5" max="5" width="0.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.109375" customWidth="1"/>
+    <col min="5" max="5" width="0.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="30.21875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="39.21875" bestFit="1" customWidth="1"/>
@@ -505,16 +505,17 @@
     <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="17.88671875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="0.109375" customWidth="1"/>
-    <col min="19" max="19" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="22.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="0.109375" customWidth="1"/>
     <col min="21" max="21" width="30.21875" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0.109375" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
     <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8" customWidth="1"/>
-    <col min="30" max="31" width="0.109375" customWidth="1"/>
-    <col min="32" max="32" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="0.109375" customWidth="1"/>
+    <col min="30" max="32" width="0.109375" customWidth="1"/>
+    <col min="33" max="33" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0.109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="17.77734375" customWidth="1"/>
   </cols>
@@ -2790,7 +2791,7 @@
         <v>0.95779999999999998</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="B31:F31" si="4">ROUND(AVERAGE(C22:C30), 4)</f>
+        <f t="shared" ref="C31:E31" si="4">ROUND(AVERAGE(C22:C30), 4)</f>
         <v>0.85360000000000003</v>
       </c>
       <c r="D31">
@@ -2802,19 +2803,19 @@
         <v>0.85009999999999997</v>
       </c>
       <c r="F31">
-        <f>ROUND(AVERAGE(F22:F30), 4)</f>
+        <f t="shared" ref="F31:K31" si="5">ROUND(AVERAGE(F22:F30), 4)</f>
         <v>0.98709999999999998</v>
       </c>
       <c r="G31">
-        <f>ROUND(AVERAGE(G22:G30), 4)</f>
+        <f t="shared" si="5"/>
         <v>0.85970000000000002</v>
       </c>
       <c r="H31">
-        <f>ROUND(AVERAGE(H22:H30), 4)</f>
+        <f t="shared" si="5"/>
         <v>0.98740000000000006</v>
       </c>
       <c r="I31">
-        <f>ROUND(AVERAGE(I22:I30), 4)</f>
+        <f t="shared" si="5"/>
         <v>0.88119999999999998</v>
       </c>
       <c r="J31">
@@ -2822,34 +2823,34 @@
         <v>0.98440000000000005</v>
       </c>
       <c r="K31">
-        <f>ROUND(AVERAGE(K22:K30), 4)</f>
+        <f t="shared" si="5"/>
         <v>0.9274</v>
       </c>
       <c r="N31" t="s">
         <v>16</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:T31" si="5">ROUND(AVERAGE(O22:O30), 4)</f>
+        <f t="shared" ref="O31:T31" si="6">ROUND(AVERAGE(O22:O30), 4)</f>
         <v>0.9425</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74909999999999999</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96970000000000001</v>
       </c>
       <c r="R31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75919999999999999</v>
       </c>
       <c r="S31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.9677</v>
       </c>
       <c r="T31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.72219999999999995</v>
       </c>
       <c r="U31">
@@ -2872,27 +2873,27 @@
         <v>16</v>
       </c>
       <c r="AB31">
-        <f t="shared" ref="AB31:AG31" si="6">ROUND(AVERAGE(AB22:AB30), 4)</f>
+        <f t="shared" ref="AB31:AG31" si="7">ROUND(AVERAGE(AB22:AB30), 4)</f>
         <v>0.91410000000000002</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65039999999999998</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94940000000000002</v>
       </c>
       <c r="AE31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.68169999999999997</v>
       </c>
       <c r="AF31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95379999999999998</v>
       </c>
       <c r="AG31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62219999999999998</v>
       </c>
       <c r="AH31">

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF6E76-5222-4A2B-ADEF-BA2D86D9BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23FB66-2A9E-4FFE-89EB-F9CB676EFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
   <si>
     <t>k = 20</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>ranking + threshold penalty + no PCA (extended)</t>
+  </si>
+  <si>
+    <t>ibd-psc</t>
+  </si>
+  <si>
+    <t>roc auc</t>
+  </si>
+  <si>
+    <t>f1 score</t>
+  </si>
+  <si>
+    <t>asr</t>
+  </si>
+  <si>
+    <t>ba</t>
   </si>
 </sst>
 </file>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +514,7 @@
     <col min="8" max="8" width="30.21875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="8" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" customWidth="1"/>
@@ -2913,6 +2928,432 @@
         <v>0.89959999999999996</v>
       </c>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>0.996</v>
+      </c>
+      <c r="C38">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="K38" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="M38">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>0.995</v>
+      </c>
+      <c r="C39">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="K39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="M39">
+        <v>0.36049999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="C40">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>0.97060000000000002</v>
+      </c>
+      <c r="M40">
+        <v>0.94220000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>0.86360000000000003</v>
+      </c>
+      <c r="M41">
+        <v>9.3799999999999994E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="C42">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="M42">
+        <v>0.91620000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="C43">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>0.95809999999999995</v>
+      </c>
+      <c r="M43">
+        <v>0.95250000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="K44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="M44">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="K45" t="s">
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>0.85219999999999996</v>
+      </c>
+      <c r="C46">
+        <v>0.70809999999999995</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46">
+        <v>0.2495</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="C56">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" t="s">
+        <v>8</v>
+      </c>
+      <c r="L56">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="M56">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>0.9375</v>
+      </c>
+      <c r="C57">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="I57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>0.9647</v>
+      </c>
+      <c r="M57">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="K58" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>0.95960000000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.97619999999999996</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="C61">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>0.9415</v>
+      </c>
+      <c r="C62">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE23FB66-2A9E-4FFE-89EB-F9CB676EFE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01003873-BB28-401D-9B3A-1B24B2F8C154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:AK63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3345,10 +3345,22 @@
       <c r="K62" t="s">
         <v>14</v>
       </c>
+      <c r="L62">
+        <v>97.424999999999997</v>
+      </c>
+      <c r="M62">
+        <v>98.881</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>14</v>
+      </c>
+      <c r="B63">
+        <v>94.04</v>
+      </c>
+      <c r="C63">
+        <v>97.1</v>
       </c>
       <c r="I63" t="s">
         <v>14</v>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01003873-BB28-401D-9B3A-1B24B2F8C154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABC9BC-7F63-4CAE-8C88-2C8C13808B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\backdoor-toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABC9BC-7F63-4CAE-8C88-2C8C13808B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA038294-4AE0-489D-8A89-616D6C424B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{29112082-27E3-4567-A1F0-F076FBBA582B}"/>
   </bookViews>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3186638D-F819-4600-A334-08963312C101}">
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
